--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Billy Bob</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
+    <t>CPSC 1301K</t>
+  </si>
+  <si>
+    <t>CYBR 3115</t>
+  </si>
+  <si>
+    <t>CYBR 2159</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -49,6 +61,21 @@
     <t>Summer 2023</t>
   </si>
   <si>
+    <t>CYBR 3119</t>
+  </si>
+  <si>
+    <t>CYBR 3106</t>
+  </si>
+  <si>
+    <t>CPSC 1302</t>
+  </si>
+  <si>
+    <t>CPSC 2108</t>
+  </si>
+  <si>
+    <t>CYBR 3108</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -67,28 +94,16 @@
     <t>Summer 2025</t>
   </si>
   <si>
-    <t>POLS 1101</t>
-  </si>
-  <si>
-    <t>CPSC 1301K</t>
-  </si>
-  <si>
-    <t>CPSC 1302</t>
-  </si>
-  <si>
-    <t>CPSC 2108</t>
-  </si>
-  <si>
-    <t>CPSC 4115</t>
-  </si>
-  <si>
-    <t>CPSC 3121</t>
-  </si>
-  <si>
     <t>CPSC 4155</t>
   </si>
   <si>
-    <t>CPSC 4157</t>
+    <t>Fall 2026</t>
+  </si>
+  <si>
+    <t>Spring 2026</t>
+  </si>
+  <si>
+    <t>Summer 2026</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -97,6 +112,9 @@
     <t>CPSC 3165</t>
   </si>
   <si>
+    <t>CPSC 4111</t>
+  </si>
+  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
@@ -106,7 +124,22 @@
     <t>CPSC 4175</t>
   </si>
   <si>
-    <t>CPSC 4176</t>
+    <t>Fall 2027</t>
+  </si>
+  <si>
+    <t>Spring 2027</t>
+  </si>
+  <si>
+    <t>Summer 2027</t>
+  </si>
+  <si>
+    <t>CPSC 6180</t>
+  </si>
+  <si>
+    <t>CPSC 6185</t>
+  </si>
+  <si>
+    <t>CPSC 6985</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -452,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,13 +536,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -517,13 +550,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -531,13 +564,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -545,18 +578,24 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -584,19 +623,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -604,13 +643,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -618,13 +657,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -632,15 +671,37 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
         <v>3</v>
       </c>
     </row>
@@ -669,19 +730,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -689,10 +750,18 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -720,19 +789,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -758,6 +827,92 @@
       </c>
       <c r="F38">
         <f>SUM(F31:F37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <f>SUM(B40:B46)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D40:D46)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <f>SUM(F40:F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <f>SUM(B49:B55)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <f>SUM(D49:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
-    <t>Billy Bob</t>
-  </si>
-  <si>
-    <t>909909909</t>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>93027423234</t>
   </si>
   <si>
     <t>Path To Graduation</t>
@@ -70,19 +70,19 @@
     <t>CPSC 1302</t>
   </si>
   <si>
-    <t>CPSC 2108</t>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
   </si>
   <si>
     <t>CYBR 3108</t>
   </si>
   <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
+    <t>CPSC 4115</t>
   </si>
   <si>
     <t>Fall 2025</t>
@@ -97,6 +97,18 @@
     <t>CPSC 4155</t>
   </si>
   <si>
+    <t>CPSC 4157</t>
+  </si>
+  <si>
+    <t>DSCI 3111</t>
+  </si>
+  <si>
+    <t>CPSC 3165</t>
+  </si>
+  <si>
+    <t>CPSC 4111</t>
+  </si>
+  <si>
     <t>Fall 2026</t>
   </si>
   <si>
@@ -104,18 +116,6 @@
   </si>
   <si>
     <t>Summer 2026</t>
-  </si>
-  <si>
-    <t>DSCI 3111</t>
-  </si>
-  <si>
-    <t>CPSC 3165</t>
-  </si>
-  <si>
-    <t>CPSC 4111</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
   </si>
   <si>
     <t>CPSC 4135</t>
@@ -497,7 +497,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -570,31 +570,17 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
         <v>3</v>
       </c>
     </row>
@@ -643,13 +629,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -657,13 +643,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -671,13 +657,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -685,23 +671,15 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
         <v>3</v>
       </c>
     </row>
@@ -730,19 +708,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -750,18 +728,38 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="B22">
+      <c r="D22">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -832,19 +830,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>93027423234</t>
+    <t>Billy Bob</t>
+  </si>
+  <si>
+    <t>0321472904323</t>
   </si>
   <si>
     <t>Path To Graduation</t>
@@ -70,6 +70,12 @@
     <t>CPSC 1302</t>
   </si>
   <si>
+    <t>CPSC 2108</t>
+  </si>
+  <si>
+    <t>CYBR 3108</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -79,12 +85,6 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>CYBR 3108</t>
-  </si>
-  <si>
-    <t>CPSC 4115</t>
-  </si>
-  <si>
     <t>Fall 2025</t>
   </si>
   <si>
@@ -97,7 +97,13 @@
     <t>CPSC 4155</t>
   </si>
   <si>
-    <t>CPSC 4157</t>
+    <t>Fall 2026</t>
+  </si>
+  <si>
+    <t>Spring 2026</t>
+  </si>
+  <si>
+    <t>Summer 2026</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -109,13 +115,7 @@
     <t>CPSC 4111</t>
   </si>
   <si>
-    <t>Fall 2026</t>
-  </si>
-  <si>
-    <t>Spring 2026</t>
-  </si>
-  <si>
-    <t>Summer 2026</t>
+    <t>CPSC 4148</t>
   </si>
   <si>
     <t>CPSC 4135</t>
@@ -570,17 +570,31 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
     </row>
@@ -629,13 +643,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -643,13 +657,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -657,13 +671,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -671,15 +685,23 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
         <v>3</v>
       </c>
     </row>
@@ -708,19 +730,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -728,38 +750,18 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -830,19 +832,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
-  <si>
-    <t>Billy Bob</t>
-  </si>
-  <si>
-    <t>0321472904323</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -43,103 +37,31 @@
     <t>POLS 1101</t>
   </si>
   <si>
-    <t>CPSC 1301K</t>
-  </si>
-  <si>
-    <t>CYBR 3115</t>
-  </si>
-  <si>
-    <t>CYBR 2159</t>
-  </si>
-  <si>
-    <t>Fall 2023</t>
-  </si>
-  <si>
-    <t>Spring 2023</t>
-  </si>
-  <si>
-    <t>Summer 2023</t>
-  </si>
-  <si>
-    <t>CYBR 3119</t>
-  </si>
-  <si>
-    <t>CYBR 3106</t>
-  </si>
-  <si>
-    <t>CPSC 1302</t>
-  </si>
-  <si>
-    <t>CPSC 2108</t>
-  </si>
-  <si>
-    <t>CYBR 3108</t>
-  </si>
-  <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
-    <t>Summer 2025</t>
+    <t>DSCI 3111</t>
+  </si>
+  <si>
+    <t>CPSC 3121</t>
+  </si>
+  <si>
+    <t>CPSC 3165</t>
+  </si>
+  <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
   </si>
   <si>
     <t>CPSC 4155</t>
   </si>
   <si>
-    <t>Fall 2026</t>
-  </si>
-  <si>
-    <t>Spring 2026</t>
-  </si>
-  <si>
-    <t>Summer 2026</t>
-  </si>
-  <si>
-    <t>DSCI 3111</t>
-  </si>
-  <si>
-    <t>CPSC 3165</t>
-  </si>
-  <si>
-    <t>CPSC 4111</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
-  </si>
-  <si>
-    <t>CPSC 4135</t>
+    <t>CPSC 4157</t>
   </si>
   <si>
     <t>CPSC 4175</t>
   </si>
   <si>
-    <t>Fall 2027</t>
-  </si>
-  <si>
-    <t>Spring 2027</t>
-  </si>
-  <si>
-    <t>Summer 2027</t>
-  </si>
-  <si>
-    <t>CPSC 6180</t>
-  </si>
-  <si>
-    <t>CPSC 6185</t>
-  </si>
-  <si>
-    <t>CPSC 6985</t>
+    <t>CPSC 4176</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -485,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,17 +418,9 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -516,33 +430,33 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -550,13 +464,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -564,13 +478,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -578,341 +492,60 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
+      <c r="B9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <f>SUM(B13:B19)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D13:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <f>SUM(F13:F19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B22:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D22:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <f>SUM(F31:F37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <f>SUM(B40:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <f>SUM(D40:D46)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47">
-        <f>SUM(F40:F46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <f>SUM(B49:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <f>SUM(D49:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56">
-        <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -32,6 +32,33 @@
   </si>
   <si>
     <t>Summer 2022</t>
+  </si>
+  <si>
+    <t>Fall 2023</t>
+  </si>
+  <si>
+    <t>Spring 2023</t>
+  </si>
+  <si>
+    <t>Summer 2023</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>Spring 2025</t>
+  </si>
+  <si>
+    <t>Summer 2025</t>
   </si>
   <si>
     <t>POLS 1101</t>
@@ -407,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,13 +477,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -464,13 +491,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -478,13 +505,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -492,13 +519,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -506,24 +533,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -546,6 +559,151 @@
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B13:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D13:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F13:F19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B22:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B31:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D31:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -43,6 +43,30 @@
     <t>Summer 2023</t>
   </si>
   <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
+    <t>DSCI 3111</t>
+  </si>
+  <si>
+    <t>CPSC 3121</t>
+  </si>
+  <si>
+    <t>CPSC 3165</t>
+  </si>
+  <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
+    <t>CPSC 4157</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -50,39 +74,6 @@
   </si>
   <si>
     <t>Summer 2024</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
-    <t>Summer 2025</t>
-  </si>
-  <si>
-    <t>POLS 1101</t>
-  </si>
-  <si>
-    <t>DSCI 3111</t>
-  </si>
-  <si>
-    <t>CPSC 3121</t>
-  </si>
-  <si>
-    <t>CPSC 3165</t>
-  </si>
-  <si>
-    <t>CPSC 4135</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
-  </si>
-  <si>
-    <t>CPSC 4155</t>
-  </si>
-  <si>
-    <t>CPSC 4157</t>
   </si>
   <si>
     <t>CPSC 4175</t>
@@ -434,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,13 +468,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -491,13 +482,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -505,13 +496,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -519,23 +510,15 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
         <v>3</v>
       </c>
     </row>
@@ -584,7 +567,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -592,9 +575,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
@@ -623,19 +614,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
@@ -661,49 +652,6 @@
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -43,6 +43,15 @@
     <t>Summer 2023</t>
   </si>
   <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
     <t>POLS 1101</t>
   </si>
   <si>
@@ -67,13 +76,22 @@
     <t>CPSC 4157</t>
   </si>
   <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>Spring 2025</t>
+  </si>
+  <si>
+    <t>Summer 2025</t>
+  </si>
+  <si>
+    <t>Fall 2026</t>
+  </si>
+  <si>
+    <t>Spring 2026</t>
+  </si>
+  <si>
+    <t>Summer 2026</t>
   </si>
   <si>
     <t>CPSC 4175</t>
@@ -425,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,13 +486,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -482,43 +500,15 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
         <v>3</v>
       </c>
     </row>
@@ -567,26 +557,30 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -614,22 +608,46 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -652,6 +670,92 @@
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B31:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D31:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f>SUM(F31:F37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <f>SUM(B40:B46)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D40:D46)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
-  <si>
-    <t>Billy Bob</t>
-  </si>
-  <si>
-    <t>0321472904323</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -40,40 +34,25 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>Fall 2023</t>
+  </si>
+  <si>
+    <t>Spring 2023</t>
+  </si>
+  <si>
+    <t>Summer 2023</t>
+  </si>
+  <si>
     <t>POLS 1101</t>
   </si>
   <si>
-    <t>CPSC 1301K</t>
-  </si>
-  <si>
-    <t>CYBR 3115</t>
-  </si>
-  <si>
-    <t>CYBR 2159</t>
-  </si>
-  <si>
-    <t>Fall 2023</t>
-  </si>
-  <si>
-    <t>Spring 2023</t>
-  </si>
-  <si>
-    <t>Summer 2023</t>
-  </si>
-  <si>
-    <t>CYBR 3119</t>
-  </si>
-  <si>
-    <t>CYBR 3106</t>
-  </si>
-  <si>
-    <t>CPSC 1302</t>
-  </si>
-  <si>
-    <t>CPSC 2108</t>
-  </si>
-  <si>
-    <t>CYBR 3108</t>
+    <t>DSCI 3111</t>
+  </si>
+  <si>
+    <t>CPSC 3121</t>
+  </si>
+  <si>
+    <t>CPSC 3165</t>
   </si>
   <si>
     <t>Fall 2024</t>
@@ -85,6 +64,18 @@
     <t>Summer 2024</t>
   </si>
   <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
+    <t>CPSC 4157</t>
+  </si>
+  <si>
     <t>Fall 2025</t>
   </si>
   <si>
@@ -94,52 +85,10 @@
     <t>Summer 2025</t>
   </si>
   <si>
-    <t>CPSC 4155</t>
-  </si>
-  <si>
-    <t>Fall 2026</t>
-  </si>
-  <si>
-    <t>Spring 2026</t>
-  </si>
-  <si>
-    <t>Summer 2026</t>
-  </si>
-  <si>
-    <t>DSCI 3111</t>
-  </si>
-  <si>
-    <t>CPSC 3165</t>
-  </si>
-  <si>
-    <t>CPSC 4111</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
-  </si>
-  <si>
-    <t>CPSC 4135</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
-    <t>Fall 2027</t>
-  </si>
-  <si>
-    <t>Spring 2027</t>
-  </si>
-  <si>
-    <t>Summer 2027</t>
-  </si>
-  <si>
-    <t>CPSC 6180</t>
-  </si>
-  <si>
-    <t>CPSC 6185</t>
-  </si>
-  <si>
-    <t>CPSC 6985</t>
+    <t>CPSC 4176</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -485,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,17 +445,9 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -516,33 +457,33 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -550,71 +491,35 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -623,33 +528,33 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -657,71 +562,35 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
@@ -730,57 +599,65 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
@@ -789,130 +666,44 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <f>SUM(B31:B37)</f>
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <f>SUM(D31:D37)</f>
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <f>SUM(F31:F37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <f>SUM(B40:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <f>SUM(D40:D46)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47">
-        <f>SUM(F40:F46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <f>SUM(B49:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <f>SUM(D49:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56">
-        <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -43,6 +46,24 @@
     <t>Summer 2023</t>
   </si>
   <si>
+    <t>DSCI 3111</t>
+  </si>
+  <si>
+    <t>CPSC 3121</t>
+  </si>
+  <si>
+    <t>CPSC 3165</t>
+  </si>
+  <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -52,46 +73,7 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>POLS 1101</t>
-  </si>
-  <si>
-    <t>DSCI 3111</t>
-  </si>
-  <si>
-    <t>CPSC 3121</t>
-  </si>
-  <si>
-    <t>CPSC 3165</t>
-  </si>
-  <si>
-    <t>CPSC 4135</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
-  </si>
-  <si>
-    <t>CPSC 4155</t>
-  </si>
-  <si>
     <t>CPSC 4157</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
-    <t>Summer 2025</t>
-  </si>
-  <si>
-    <t>Fall 2026</t>
-  </si>
-  <si>
-    <t>Spring 2026</t>
-  </si>
-  <si>
-    <t>Summer 2026</t>
   </si>
   <si>
     <t>CPSC 4175</t>
@@ -443,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F47"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,13 +468,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -500,16 +482,38 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -537,19 +541,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -557,13 +561,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -571,15 +575,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
     </row>
@@ -608,46 +614,22 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -670,92 +652,6 @@
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <f>SUM(F31:F37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <f>SUM(B40:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <f>SUM(D40:D46)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>CPSC 4155</t>
-  </si>
-  <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
   </si>
   <si>
     <t>CPSC 4157</t>
@@ -425,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,9 +465,15 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
@@ -488,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -502,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -510,9 +507,31 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
@@ -559,36 +578,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>2</v>
@@ -609,49 +598,6 @@
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B22:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D22:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,21 +441,6 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -464,18 +449,6 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -485,10 +458,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -499,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -513,10 +483,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -526,6 +499,18 @@
       <c r="B8">
         <v>3</v>
       </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -534,6 +519,15 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -543,61 +537,75 @@
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D11">
-        <f>SUM(D4:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D13">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="F11">
-        <f>SUM(F4:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
+      <c r="F15">
+        <f>SUM(F8:F14)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B20">
-        <f>SUM(B13:B19)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B28">
+        <f>SUM(B21:B27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D20">
-        <f>SUM(D13:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D30">
+        <f>SUM(D23:D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="E32" t="s">
         <v>2</v>
       </c>
-      <c r="F20">
-        <f>SUM(F13:F19)</f>
+      <c r="F32">
+        <f>SUM(F25:F31)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>394728739813</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -62,6 +68,15 @@
   </si>
   <si>
     <t>CPSC 4155</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
   </si>
   <si>
     <t>CPSC 4157</t>
@@ -416,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F32"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,9 +442,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -439,37 +462,61 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -477,135 +524,148 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D4:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F4:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <f>SUM(D6:D12)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <f>SUM(F8:F14)</f>
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B21:B27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <f>SUM(D23:D29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <f>SUM(F25:F31)</f>
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B13:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D13:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F13:F19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B22:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
-  <si>
-    <t>Philip</t>
-  </si>
-  <si>
-    <t>394728739813</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -68,15 +62,6 @@
   </si>
   <si>
     <t>CPSC 4155</t>
-  </si>
-  <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
   </si>
   <si>
     <t>CPSC 4157</t>
@@ -431,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,17 +427,9 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -462,27 +439,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -493,10 +470,16 @@
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -510,7 +493,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -524,29 +507,51 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -555,117 +560,44 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B22:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D22:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -55,6 +55,9 @@
     <t>CPSC 3165</t>
   </si>
   <si>
+    <t>CPSC 4000</t>
+  </si>
+  <si>
     <t>CPSC 4135</t>
   </si>
   <si>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t>CPSC 4176</t>
-  </si>
-  <si>
-    <t>CPSC 4000</t>
   </si>
 </sst>
 </file>
@@ -465,13 +465,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -485,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -524,15 +524,15 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>POLS 1101</t>
-  </si>
-  <si>
     <t>DSCI 3111</t>
   </si>
   <si>
@@ -55,13 +55,7 @@
     <t>CPSC 3165</t>
   </si>
   <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
+    <t>CPSC 4000</t>
   </si>
   <si>
     <t>CPSC 4135</t>
@@ -76,22 +70,10 @@
     <t>CPSC 4157</t>
   </si>
   <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
-    <t>Summer 2025</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
     <t>CPSC 4176</t>
-  </si>
-  <si>
-    <t>CPSC 4000</t>
   </si>
 </sst>
 </file>
@@ -434,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,15 +459,21 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
@@ -497,9 +485,53 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
     </row>
@@ -528,49 +560,21 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
         <v>3</v>
       </c>
     </row>
@@ -594,116 +598,6 @@
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B22:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D22:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,9 +433,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -439,39 +453,39 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -479,13 +493,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -493,13 +507,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -507,13 +521,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -521,7 +535,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -529,7 +543,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -537,21 +551,21 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -560,41 +574,41 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 1.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+  <si>
+    <t>dadaw</t>
+  </si>
+  <si>
+    <t>32423</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,9 +433,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -439,39 +453,39 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -479,13 +493,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -493,13 +507,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -507,13 +521,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -521,7 +535,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -529,7 +543,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -537,21 +551,21 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -560,41 +574,41 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
